--- a/biology/Botanique/Hippocastanaceae/Hippocastanaceae.xlsx
+++ b/biology/Botanique/Hippocastanaceae/Hippocastanaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Hippocastanacées regroupe des plantes dicotylédones. Selon Watson &amp; Dallwitz elle comprend 15 espèces réparties en deux genres :
 Aesculus
@@ -515,9 +527,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient de Hippocastanum, issu du grec ιππος / hippos, cheval, et καστανών / kastanon, châtaigne, littéralement « châtaigne ou marron de cheval ». Ce mot est un nom de genre chez Gaertner et chez Tournefort[note 1], mais est devenu l'épithète spécifique du « marronnier d'Inde », Aesculus hippocastanum[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient de Hippocastanum, issu du grec ιππος / hippos, cheval, et καστανών / kastanon, châtaigne, littéralement « châtaigne ou marron de cheval ». Ce mot est un nom de genre chez Gaertner et chez Tournefort[note 1], mais est devenu l'épithète spécifique du « marronnier d'Inde », Aesculus hippocastanum.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification phylogénétique APG II (2003)[2] et en classification phylogénétique APG III (2009)[3] cette famille est invalide et ses genres sont incorporés dans la famille Sapindaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG II (2003) et en classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille Sapindaceae.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les régions tempérées, l'espèce la plus notable est le marronnier d'inde (Aesculus hippocastanum) un grand arbre largement planté comme arbre d'ornement dans les parcs et jardin.
 </t>
